--- a/Projects/CCRU_SAND/Data/KPIs_2020/PoS 2020 - FT.xlsx
+++ b/Projects/CCRU_SAND/Data/KPIs_2020/PoS 2020 - FT.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11860" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11860" uniqueCount="641">
   <si>
     <t xml:space="preserve">Sorting</t>
   </si>
@@ -572,7 +572,7 @@
     <t xml:space="preserve">5449000265098, 5449000265104</t>
   </si>
   <si>
-    <t xml:space="preserve">Coca-Cola Energy - 0.25L, Coca-Cola Zero Energy - 0.25L</t>
+    <t xml:space="preserve">Coca-Cola Energy - 0.25L, Coca-Cola Energy Zero - 0.25L</t>
   </si>
   <si>
     <t xml:space="preserve">Monster Green - 0.5L</t>
@@ -1754,9 +1754,6 @@
   </si>
   <si>
     <t xml:space="preserve">5449000265104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coca-Cola Zero Energy - 0.25L</t>
   </si>
   <si>
     <t xml:space="preserve">17
@@ -42570,7 +42567,7 @@
         <v>498</v>
       </c>
       <c r="AE683" s="0" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AQ683" s="0" t="s">
         <v>74</v>
@@ -42605,7 +42602,7 @@
         <v>501</v>
       </c>
       <c r="N684" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="P684" s="0" t="s">
         <v>342</v>
@@ -42643,7 +42640,7 @@
         <v>501</v>
       </c>
       <c r="N685" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="P685" s="0" t="s">
         <v>345</v>
@@ -42705,7 +42702,7 @@
         <v>17</v>
       </c>
       <c r="N686" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O686" s="0" t="n">
         <v>0.2</v>
@@ -42864,7 +42861,7 @@
         <v>501</v>
       </c>
       <c r="N689" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P689" s="0" t="s">
         <v>365</v>
@@ -42876,7 +42873,7 @@
         <v>56</v>
       </c>
       <c r="AW689" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX689" s="0" t="s">
         <v>481</v>
@@ -42926,7 +42923,7 @@
         <v>21</v>
       </c>
       <c r="N690" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P690" s="0" t="s">
         <v>380</v>
@@ -42944,7 +42941,7 @@
         <v>372</v>
       </c>
       <c r="AW690" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX690" s="0" t="s">
         <v>481</v>
@@ -43000,7 +42997,7 @@
         <v>372</v>
       </c>
       <c r="AW691" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX691" s="0" t="s">
         <v>481</v>
@@ -43032,10 +43029,10 @@
         <v>0.04</v>
       </c>
       <c r="P692" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q692" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="Q692" s="0" t="s">
-        <v>507</v>
       </c>
       <c r="T692" s="0" t="s">
         <v>375</v>
@@ -43053,7 +43050,7 @@
         <v>372</v>
       </c>
       <c r="AW692" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX692" s="0" t="s">
         <v>481</v>
@@ -43085,13 +43082,13 @@
         <v>0.1</v>
       </c>
       <c r="P693" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q693" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="Q693" s="0" t="s">
+      <c r="T693" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="T693" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="AB693" s="0" t="s">
         <v>353</v>
@@ -43109,7 +43106,7 @@
         <v>372</v>
       </c>
       <c r="AW693" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX693" s="0" t="s">
         <v>481</v>
@@ -43123,7 +43120,7 @@
         <v>1</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K694" s="0" t="n">
         <v>1</v>
@@ -43132,7 +43129,7 @@
         <v>500</v>
       </c>
       <c r="N694" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P694" s="0" t="s">
         <v>54</v>
@@ -43144,7 +43141,7 @@
         <v>56</v>
       </c>
       <c r="AW694" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX694" s="0" t="s">
         <v>481</v>
@@ -43158,7 +43155,7 @@
         <v>2</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C695" s="0" t="s">
         <v>59</v>
@@ -43194,7 +43191,7 @@
         <v>500</v>
       </c>
       <c r="N695" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P695" s="0" t="s">
         <v>61</v>
@@ -43212,7 +43209,7 @@
         <v>66</v>
       </c>
       <c r="AW695" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX695" s="0" t="s">
         <v>481</v>
@@ -43229,7 +43226,7 @@
         <v>3</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K696" s="0" t="n">
         <v>3</v>
@@ -43274,7 +43271,7 @@
         <v>75</v>
       </c>
       <c r="AW696" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX696" s="0" t="s">
         <v>481</v>
@@ -43291,7 +43288,7 @@
         <v>4</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K697" s="0" t="n">
         <v>3</v>
@@ -43336,7 +43333,7 @@
         <v>75</v>
       </c>
       <c r="AW697" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX697" s="0" t="s">
         <v>481</v>
@@ -43353,7 +43350,7 @@
         <v>5</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K698" s="0" t="n">
         <v>3</v>
@@ -43398,7 +43395,7 @@
         <v>75</v>
       </c>
       <c r="AW698" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX698" s="0" t="s">
         <v>481</v>
@@ -43415,7 +43412,7 @@
         <v>6</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K699" s="0" t="n">
         <v>3</v>
@@ -43460,7 +43457,7 @@
         <v>75</v>
       </c>
       <c r="AW699" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX699" s="0" t="s">
         <v>481</v>
@@ -43477,7 +43474,7 @@
         <v>7</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K700" s="0" t="n">
         <v>3</v>
@@ -43522,7 +43519,7 @@
         <v>75</v>
       </c>
       <c r="AW700" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX700" s="0" t="s">
         <v>481</v>
@@ -43539,7 +43536,7 @@
         <v>8</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K701" s="0" t="n">
         <v>3</v>
@@ -43584,7 +43581,7 @@
         <v>75</v>
       </c>
       <c r="AW701" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX701" s="0" t="s">
         <v>481</v>
@@ -43601,7 +43598,7 @@
         <v>9</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K702" s="0" t="n">
         <v>3</v>
@@ -43646,7 +43643,7 @@
         <v>75</v>
       </c>
       <c r="AW702" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX702" s="0" t="s">
         <v>481</v>
@@ -43663,7 +43660,7 @@
         <v>10</v>
       </c>
       <c r="B703" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C703" s="0" t="s">
         <v>135</v>
@@ -43699,7 +43696,7 @@
         <v>500</v>
       </c>
       <c r="N703" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P703" s="0" t="s">
         <v>137</v>
@@ -43717,7 +43714,7 @@
         <v>66</v>
       </c>
       <c r="AW703" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX703" s="0" t="s">
         <v>481</v>
@@ -43734,7 +43731,7 @@
         <v>11</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K704" s="0" t="n">
         <v>3</v>
@@ -43749,10 +43746,10 @@
         <v>0.04</v>
       </c>
       <c r="P704" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q704" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="Q704" s="0" t="s">
-        <v>516</v>
       </c>
       <c r="T704" s="0" t="s">
         <v>70</v>
@@ -43767,10 +43764,10 @@
         <v>72</v>
       </c>
       <c r="AD704" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AE704" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AQ704" s="0" t="s">
         <v>74</v>
@@ -43779,7 +43776,7 @@
         <v>75</v>
       </c>
       <c r="AW704" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX704" s="0" t="s">
         <v>481</v>
@@ -43796,7 +43793,7 @@
         <v>12</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K705" s="0" t="n">
         <v>3</v>
@@ -43811,10 +43808,10 @@
         <v>0.04</v>
       </c>
       <c r="P705" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q705" s="0" t="s">
         <v>518</v>
-      </c>
-      <c r="Q705" s="0" t="s">
-        <v>519</v>
       </c>
       <c r="T705" s="0" t="s">
         <v>70</v>
@@ -43829,10 +43826,10 @@
         <v>72</v>
       </c>
       <c r="AD705" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AE705" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AQ705" s="0" t="s">
         <v>74</v>
@@ -43841,7 +43838,7 @@
         <v>75</v>
       </c>
       <c r="AW705" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX705" s="0" t="s">
         <v>481</v>
@@ -43858,7 +43855,7 @@
         <v>13</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C706" s="0" t="s">
         <v>201</v>
@@ -43912,7 +43909,7 @@
         <v>66</v>
       </c>
       <c r="AW706" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX706" s="0" t="s">
         <v>481</v>
@@ -43929,7 +43926,7 @@
         <v>14</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K707" s="0" t="n">
         <v>3</v>
@@ -43974,7 +43971,7 @@
         <v>75</v>
       </c>
       <c r="AW707" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX707" s="0" t="s">
         <v>481</v>
@@ -43991,7 +43988,7 @@
         <v>15</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K708" s="0" t="n">
         <v>3</v>
@@ -44036,7 +44033,7 @@
         <v>75</v>
       </c>
       <c r="AW708" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX708" s="0" t="s">
         <v>481</v>
@@ -44053,7 +44050,7 @@
         <v>16</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K709" s="0" t="n">
         <v>3</v>
@@ -44098,7 +44095,7 @@
         <v>75</v>
       </c>
       <c r="AW709" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX709" s="0" t="s">
         <v>481</v>
@@ -44115,7 +44112,7 @@
         <v>17</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K710" s="0" t="n">
         <v>3</v>
@@ -44130,10 +44127,10 @@
         <v>0.04</v>
       </c>
       <c r="P710" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q710" s="0" t="s">
         <v>521</v>
-      </c>
-      <c r="Q710" s="0" t="s">
-        <v>522</v>
       </c>
       <c r="T710" s="0" t="s">
         <v>70</v>
@@ -44148,10 +44145,10 @@
         <v>72</v>
       </c>
       <c r="AD710" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AE710" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AQ710" s="0" t="s">
         <v>74</v>
@@ -44160,7 +44157,7 @@
         <v>75</v>
       </c>
       <c r="AW710" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX710" s="0" t="s">
         <v>481</v>
@@ -44177,7 +44174,7 @@
         <v>18</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K711" s="0" t="n">
         <v>1</v>
@@ -44186,19 +44183,19 @@
         <v>501</v>
       </c>
       <c r="N711" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="P711" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="P711" s="0" t="s">
+      <c r="Q711" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="Q711" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="T711" s="0" t="s">
         <v>56</v>
       </c>
       <c r="AW711" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX711" s="0" t="s">
         <v>481</v>
@@ -44212,7 +44209,7 @@
         <v>19</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C712" s="0" t="s">
         <v>59</v>
@@ -44221,22 +44218,22 @@
         <v>60</v>
       </c>
       <c r="E712" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F712" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="F712" s="0" t="s">
+      <c r="G712" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="G712" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="H712" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="I712" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="I712" s="0" t="s">
+      <c r="J712" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="J712" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="K712" s="0" t="n">
         <v>2</v>
@@ -44248,16 +44245,16 @@
         <v>501</v>
       </c>
       <c r="N712" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O712" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="P712" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q712" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="Q712" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="T712" s="0" t="s">
         <v>287</v>
@@ -44269,10 +44266,10 @@
         <v>71</v>
       </c>
       <c r="AU712" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW712" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX712" s="0" t="s">
         <v>481</v>
@@ -44289,7 +44286,7 @@
         <v>20</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K713" s="0" t="n">
         <v>3</v>
@@ -44301,10 +44298,10 @@
         <v>18</v>
       </c>
       <c r="P713" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q713" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="Q713" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="T713" s="0" t="s">
         <v>70</v>
@@ -44322,10 +44319,10 @@
         <v>65</v>
       </c>
       <c r="AU713" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW713" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX713" s="0" t="s">
         <v>481</v>
@@ -44342,7 +44339,7 @@
         <v>21</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C714" s="0" t="s">
         <v>201</v>
@@ -44351,22 +44348,22 @@
         <v>202</v>
       </c>
       <c r="E714" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F714" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="F714" s="0" t="s">
-        <v>535</v>
-      </c>
       <c r="G714" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H714" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I714" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="J714" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="J714" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="K714" s="0" t="n">
         <v>2</v>
@@ -44378,16 +44375,16 @@
         <v>501</v>
       </c>
       <c r="N714" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O714" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="P714" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q714" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="Q714" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="T714" s="0" t="s">
         <v>287</v>
@@ -44399,10 +44396,10 @@
         <v>71</v>
       </c>
       <c r="AU714" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW714" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX714" s="0" t="s">
         <v>481</v>
@@ -44419,7 +44416,7 @@
         <v>22</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K715" s="0" t="n">
         <v>3</v>
@@ -44431,10 +44428,10 @@
         <v>21</v>
       </c>
       <c r="P715" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q715" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="Q715" s="0" t="s">
-        <v>538</v>
       </c>
       <c r="T715" s="0" t="s">
         <v>70</v>
@@ -44452,10 +44449,10 @@
         <v>208</v>
       </c>
       <c r="AU715" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW715" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX715" s="0" t="s">
         <v>481</v>
@@ -44472,7 +44469,7 @@
         <v>23</v>
       </c>
       <c r="B716" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K716" s="0" t="n">
         <v>1</v>
@@ -44484,7 +44481,7 @@
         <v>502</v>
       </c>
       <c r="N716" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="P716" s="0" t="s">
         <v>342</v>
@@ -44496,7 +44493,7 @@
         <v>56</v>
       </c>
       <c r="AW716" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX716" s="0" t="s">
         <v>481</v>
@@ -44510,7 +44507,7 @@
         <v>24</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K717" s="0" t="n">
         <v>1</v>
@@ -44519,7 +44516,7 @@
         <v>23</v>
       </c>
       <c r="N717" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P717" s="0" t="s">
         <v>345</v>
@@ -44531,7 +44528,7 @@
         <v>56</v>
       </c>
       <c r="AW717" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX717" s="0" t="s">
         <v>481</v>
@@ -44545,7 +44542,7 @@
         <v>25</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C718" s="0" t="s">
         <v>342</v>
@@ -44581,7 +44578,7 @@
         <v>23</v>
       </c>
       <c r="N718" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="O718" s="0" t="n">
         <v>0.14</v>
@@ -44599,7 +44596,7 @@
         <v>351</v>
       </c>
       <c r="AW718" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX718" s="0" t="s">
         <v>481</v>
@@ -44616,7 +44613,7 @@
         <v>26</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K719" s="0" t="n">
         <v>3</v>
@@ -44658,7 +44655,7 @@
         <v>359</v>
       </c>
       <c r="AW719" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX719" s="0" t="s">
         <v>481</v>
@@ -44675,7 +44672,7 @@
         <v>27</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K720" s="0" t="n">
         <v>3</v>
@@ -44711,7 +44708,7 @@
         <v>363</v>
       </c>
       <c r="AW720" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX720" s="0" t="s">
         <v>481</v>
@@ -44728,7 +44725,7 @@
         <v>28</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K721" s="0" t="n">
         <v>1</v>
@@ -44740,7 +44737,7 @@
         <v>502</v>
       </c>
       <c r="N721" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P721" s="0" t="s">
         <v>365</v>
@@ -44752,7 +44749,7 @@
         <v>56</v>
       </c>
       <c r="AW721" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX721" s="0" t="s">
         <v>481</v>
@@ -44766,7 +44763,7 @@
         <v>29</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C722" s="0" t="s">
         <v>342</v>
@@ -44802,7 +44799,7 @@
         <v>27</v>
       </c>
       <c r="N722" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="P722" s="0" t="s">
         <v>380</v>
@@ -44820,7 +44817,7 @@
         <v>372</v>
       </c>
       <c r="AW722" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX722" s="0" t="s">
         <v>481</v>
@@ -44837,7 +44834,7 @@
         <v>30</v>
       </c>
       <c r="B723" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K723" s="0" t="n">
         <v>3</v>
@@ -44876,7 +44873,7 @@
         <v>372</v>
       </c>
       <c r="AW723" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX723" s="0" t="s">
         <v>481</v>
@@ -44893,7 +44890,7 @@
         <v>31</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K724" s="0" t="n">
         <v>3</v>
@@ -44908,10 +44905,10 @@
         <v>0.04</v>
       </c>
       <c r="P724" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q724" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="Q724" s="0" t="s">
-        <v>507</v>
       </c>
       <c r="T724" s="0" t="s">
         <v>375</v>
@@ -44929,7 +44926,7 @@
         <v>372</v>
       </c>
       <c r="AW724" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX724" s="0" t="s">
         <v>481</v>
@@ -44946,7 +44943,7 @@
         <v>32</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K725" s="0" t="n">
         <v>3</v>
@@ -44961,13 +44958,13 @@
         <v>0.05</v>
       </c>
       <c r="P725" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q725" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="Q725" s="0" t="s">
+      <c r="T725" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="T725" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="AB725" s="0" t="s">
         <v>353</v>
@@ -44985,7 +44982,7 @@
         <v>372</v>
       </c>
       <c r="AW725" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AX725" s="0" t="s">
         <v>481</v>
@@ -44999,7 +44996,7 @@
         <v>1</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K726" s="0" t="n">
         <v>1</v>
@@ -45008,7 +45005,7 @@
         <v>500</v>
       </c>
       <c r="N726" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P726" s="0" t="s">
         <v>54</v>
@@ -45020,10 +45017,10 @@
         <v>56</v>
       </c>
       <c r="AW726" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX726" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX726" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY726" s="0" t="s">
         <v>56</v>
@@ -45034,7 +45031,7 @@
         <v>2</v>
       </c>
       <c r="B727" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C727" s="0" t="s">
         <v>59</v>
@@ -45070,7 +45067,7 @@
         <v>500</v>
       </c>
       <c r="N727" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P727" s="0" t="s">
         <v>61</v>
@@ -45088,10 +45085,10 @@
         <v>66</v>
       </c>
       <c r="AW727" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX727" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX727" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY727" s="0" t="s">
         <v>56</v>
@@ -45105,7 +45102,7 @@
         <v>3</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K728" s="0" t="n">
         <v>3</v>
@@ -45150,10 +45147,10 @@
         <v>75</v>
       </c>
       <c r="AW728" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX728" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX728" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY728" s="0" t="s">
         <v>56</v>
@@ -45167,7 +45164,7 @@
         <v>4</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K729" s="0" t="n">
         <v>3</v>
@@ -45212,10 +45209,10 @@
         <v>75</v>
       </c>
       <c r="AW729" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX729" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX729" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY729" s="0" t="s">
         <v>56</v>
@@ -45229,7 +45226,7 @@
         <v>5</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C730" s="0" t="s">
         <v>135</v>
@@ -45265,7 +45262,7 @@
         <v>500</v>
       </c>
       <c r="N730" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P730" s="0" t="s">
         <v>137</v>
@@ -45283,10 +45280,10 @@
         <v>66</v>
       </c>
       <c r="AW730" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX730" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX730" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY730" s="0" t="s">
         <v>56</v>
@@ -45300,7 +45297,7 @@
         <v>6</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K731" s="0" t="n">
         <v>3</v>
@@ -45315,10 +45312,10 @@
         <v>0.08</v>
       </c>
       <c r="P731" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q731" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="Q731" s="0" t="s">
-        <v>516</v>
       </c>
       <c r="T731" s="0" t="s">
         <v>70</v>
@@ -45333,10 +45330,10 @@
         <v>72</v>
       </c>
       <c r="AD731" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AE731" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AQ731" s="0" t="s">
         <v>74</v>
@@ -45345,10 +45342,10 @@
         <v>75</v>
       </c>
       <c r="AW731" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX731" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX731" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY731" s="0" t="s">
         <v>56</v>
@@ -45362,7 +45359,7 @@
         <v>7</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K732" s="0" t="n">
         <v>3</v>
@@ -45377,10 +45374,10 @@
         <v>0.08</v>
       </c>
       <c r="P732" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q732" s="0" t="s">
         <v>518</v>
-      </c>
-      <c r="Q732" s="0" t="s">
-        <v>519</v>
       </c>
       <c r="T732" s="0" t="s">
         <v>70</v>
@@ -45395,10 +45392,10 @@
         <v>72</v>
       </c>
       <c r="AD732" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AE732" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AQ732" s="0" t="s">
         <v>74</v>
@@ -45407,10 +45404,10 @@
         <v>75</v>
       </c>
       <c r="AW732" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX732" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX732" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY732" s="0" t="s">
         <v>56</v>
@@ -45424,7 +45421,7 @@
         <v>8</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C733" s="0" t="s">
         <v>201</v>
@@ -45460,7 +45457,7 @@
         <v>500</v>
       </c>
       <c r="N733" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="P733" s="0" t="s">
         <v>206</v>
@@ -45478,10 +45475,10 @@
         <v>66</v>
       </c>
       <c r="AW733" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX733" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX733" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY733" s="0" t="s">
         <v>56</v>
@@ -45495,7 +45492,7 @@
         <v>9</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K734" s="0" t="n">
         <v>3</v>
@@ -45540,10 +45537,10 @@
         <v>75</v>
       </c>
       <c r="AW734" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX734" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX734" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY734" s="0" t="s">
         <v>56</v>
@@ -45557,7 +45554,7 @@
         <v>10</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K735" s="0" t="n">
         <v>3</v>
@@ -45602,10 +45599,10 @@
         <v>75</v>
       </c>
       <c r="AW735" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX735" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX735" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY735" s="0" t="s">
         <v>56</v>
@@ -45619,7 +45616,7 @@
         <v>11</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K736" s="0" t="n">
         <v>3</v>
@@ -45664,10 +45661,10 @@
         <v>75</v>
       </c>
       <c r="AW736" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX736" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX736" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY736" s="0" t="s">
         <v>56</v>
@@ -45681,7 +45678,7 @@
         <v>12</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K737" s="0" t="n">
         <v>3</v>
@@ -45726,10 +45723,10 @@
         <v>75</v>
       </c>
       <c r="AW737" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX737" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX737" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY737" s="0" t="s">
         <v>56</v>
@@ -45743,7 +45740,7 @@
         <v>13</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K738" s="0" t="n">
         <v>1</v>
@@ -45752,22 +45749,22 @@
         <v>600</v>
       </c>
       <c r="N738" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P738" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q738" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="Q738" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="T738" s="0" t="s">
         <v>56</v>
       </c>
       <c r="AW738" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX738" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX738" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY738" s="0" t="s">
         <v>56</v>
@@ -45778,7 +45775,7 @@
         <v>14</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C739" s="0" t="s">
         <v>59</v>
@@ -45787,22 +45784,22 @@
         <v>60</v>
       </c>
       <c r="E739" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F739" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="F739" s="0" t="s">
+      <c r="G739" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="G739" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="H739" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="I739" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="I739" s="0" t="s">
+      <c r="J739" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="J739" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="K739" s="0" t="n">
         <v>2</v>
@@ -45814,16 +45811,16 @@
         <v>600</v>
       </c>
       <c r="N739" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O739" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="P739" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q739" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="Q739" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="T739" s="0" t="s">
         <v>287</v>
@@ -45835,13 +45832,13 @@
         <v>71</v>
       </c>
       <c r="AU739" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW739" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX739" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX739" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY739" s="0" t="s">
         <v>56</v>
@@ -45855,7 +45852,7 @@
         <v>15</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K740" s="0" t="n">
         <v>3</v>
@@ -45867,10 +45864,10 @@
         <v>13</v>
       </c>
       <c r="P740" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q740" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="Q740" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="T740" s="0" t="s">
         <v>70</v>
@@ -45888,13 +45885,13 @@
         <v>65</v>
       </c>
       <c r="AU740" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW740" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX740" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX740" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY740" s="0" t="s">
         <v>56</v>
@@ -45908,7 +45905,7 @@
         <v>16</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C741" s="0" t="s">
         <v>201</v>
@@ -45917,22 +45914,22 @@
         <v>202</v>
       </c>
       <c r="E741" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F741" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="F741" s="0" t="s">
-        <v>535</v>
-      </c>
       <c r="G741" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H741" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I741" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="J741" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="J741" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="K741" s="0" t="n">
         <v>2</v>
@@ -45944,16 +45941,16 @@
         <v>600</v>
       </c>
       <c r="N741" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O741" s="0" t="n">
         <v>0.16</v>
       </c>
       <c r="P741" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q741" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="Q741" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="T741" s="0" t="s">
         <v>287</v>
@@ -45965,13 +45962,13 @@
         <v>71</v>
       </c>
       <c r="AU741" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW741" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX741" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX741" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY741" s="0" t="s">
         <v>56</v>
@@ -45985,7 +45982,7 @@
         <v>17</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K742" s="0" t="n">
         <v>3</v>
@@ -45997,10 +45994,10 @@
         <v>16</v>
       </c>
       <c r="P742" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q742" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="Q742" s="0" t="s">
-        <v>538</v>
       </c>
       <c r="T742" s="0" t="s">
         <v>70</v>
@@ -46018,13 +46015,13 @@
         <v>208</v>
       </c>
       <c r="AU742" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW742" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX742" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX742" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY742" s="0" t="s">
         <v>56</v>
@@ -46038,7 +46035,7 @@
         <v>18</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C743" s="0" t="s">
         <v>135</v>
@@ -46047,22 +46044,22 @@
         <v>136</v>
       </c>
       <c r="E743" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="F743" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="F743" s="0" t="s">
-        <v>555</v>
-      </c>
       <c r="G743" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H743" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I743" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="J743" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="J743" s="0" t="s">
-        <v>555</v>
       </c>
       <c r="K743" s="0" t="n">
         <v>2</v>
@@ -46074,16 +46071,16 @@
         <v>600</v>
       </c>
       <c r="N743" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O743" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="P743" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q743" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="Q743" s="0" t="s">
-        <v>555</v>
       </c>
       <c r="T743" s="0" t="s">
         <v>287</v>
@@ -46095,13 +46092,13 @@
         <v>71</v>
       </c>
       <c r="AU743" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AW743" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX743" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX743" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY743" s="0" t="s">
         <v>56</v>
@@ -46115,7 +46112,7 @@
         <v>19</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K744" s="0" t="n">
         <v>3</v>
@@ -46127,10 +46124,10 @@
         <v>19</v>
       </c>
       <c r="P744" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q744" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="Q744" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="T744" s="0" t="s">
         <v>70</v>
@@ -46148,13 +46145,13 @@
         <v>65</v>
       </c>
       <c r="AU744" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AW744" s="0" t="s">
+        <v>545</v>
+      </c>
+      <c r="AX744" s="0" t="s">
         <v>546</v>
-      </c>
-      <c r="AX744" s="0" t="s">
-        <v>547</v>
       </c>
       <c r="AY744" s="0" t="s">
         <v>56</v>
@@ -46168,7 +46165,7 @@
         <v>1</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K745" s="0" t="n">
         <v>1</v>
@@ -46177,7 +46174,7 @@
         <v>300</v>
       </c>
       <c r="N745" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="P745" s="0" t="s">
         <v>54</v>
@@ -46189,10 +46186,10 @@
         <v>56</v>
       </c>
       <c r="AW745" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="AX745" s="0" t="s">
         <v>562</v>
-      </c>
-      <c r="AX745" s="0" t="s">
-        <v>563</v>
       </c>
       <c r="AY745" s="0" t="s">
         <v>56</v>
@@ -46203,7 +46200,7 @@
         <v>2</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C746" s="0" t="s">
         <v>59</v>
@@ -46239,7 +46236,7 @@
         <v>300</v>
       </c>
       <c r="N746" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="P746" s="0" t="s">
         <v>61</v>
@@ -46257,7 +46254,7 @@
         <v>66</v>
       </c>
       <c r="AW746" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX746" s="0" t="s">
         <v>481</v>
@@ -46274,7 +46271,7 @@
         <v>3</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K747" s="0" t="n">
         <v>3</v>
@@ -46319,7 +46316,7 @@
         <v>400</v>
       </c>
       <c r="AW747" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX747" s="0" t="s">
         <v>481</v>
@@ -46336,7 +46333,7 @@
         <v>4</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K748" s="0" t="n">
         <v>3</v>
@@ -46381,7 +46378,7 @@
         <v>400</v>
       </c>
       <c r="AW748" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX748" s="0" t="s">
         <v>481</v>
@@ -46398,7 +46395,7 @@
         <v>5</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K749" s="0" t="n">
         <v>3</v>
@@ -46443,7 +46440,7 @@
         <v>400</v>
       </c>
       <c r="AW749" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX749" s="0" t="s">
         <v>481</v>
@@ -46460,7 +46457,7 @@
         <v>6</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K750" s="0" t="n">
         <v>3</v>
@@ -46505,7 +46502,7 @@
         <v>400</v>
       </c>
       <c r="AW750" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX750" s="0" t="s">
         <v>481</v>
@@ -46522,7 +46519,7 @@
         <v>7</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K751" s="0" t="n">
         <v>3</v>
@@ -46567,7 +46564,7 @@
         <v>400</v>
       </c>
       <c r="AW751" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX751" s="0" t="s">
         <v>481</v>
@@ -46584,7 +46581,7 @@
         <v>8</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K752" s="0" t="n">
         <v>3</v>
@@ -46629,7 +46626,7 @@
         <v>400</v>
       </c>
       <c r="AW752" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX752" s="0" t="s">
         <v>481</v>
@@ -46646,7 +46643,7 @@
         <v>9</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K753" s="0" t="n">
         <v>3</v>
@@ -46691,7 +46688,7 @@
         <v>400</v>
       </c>
       <c r="AW753" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX753" s="0" t="s">
         <v>481</v>
@@ -46708,7 +46705,7 @@
         <v>10</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K754" s="0" t="n">
         <v>3</v>
@@ -46753,7 +46750,7 @@
         <v>400</v>
       </c>
       <c r="AW754" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX754" s="0" t="s">
         <v>481</v>
@@ -46770,7 +46767,7 @@
         <v>11</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K755" s="0" t="n">
         <v>3</v>
@@ -46785,10 +46782,10 @@
         <v>0.03</v>
       </c>
       <c r="P755" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q755" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="Q755" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="T755" s="0" t="s">
         <v>70</v>
@@ -46803,10 +46800,10 @@
         <v>72</v>
       </c>
       <c r="AD755" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE755" s="0" t="s">
         <v>567</v>
-      </c>
-      <c r="AE755" s="0" t="s">
-        <v>568</v>
       </c>
       <c r="AQ755" s="0" t="s">
         <v>74</v>
@@ -46815,7 +46812,7 @@
         <v>400</v>
       </c>
       <c r="AW755" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX755" s="0" t="s">
         <v>481</v>
@@ -46832,7 +46829,7 @@
         <v>12</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C756" s="0" t="s">
         <v>135</v>
@@ -46868,7 +46865,7 @@
         <v>300</v>
       </c>
       <c r="N756" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="P756" s="0" t="s">
         <v>137</v>
@@ -46886,7 +46883,7 @@
         <v>66</v>
       </c>
       <c r="AW756" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX756" s="0" t="s">
         <v>481</v>
@@ -46903,7 +46900,7 @@
         <v>13</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K757" s="0" t="n">
         <v>3</v>
@@ -46918,10 +46915,10 @@
         <v>0.03</v>
       </c>
       <c r="P757" s="0" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q757" s="0" t="s">
         <v>515</v>
-      </c>
-      <c r="Q757" s="0" t="s">
-        <v>516</v>
       </c>
       <c r="T757" s="0" t="s">
         <v>70</v>
@@ -46936,10 +46933,10 @@
         <v>72</v>
       </c>
       <c r="AD757" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AE757" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AQ757" s="0" t="s">
         <v>74</v>
@@ -46948,7 +46945,7 @@
         <v>400</v>
       </c>
       <c r="AW757" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX757" s="0" t="s">
         <v>481</v>
@@ -46965,7 +46962,7 @@
         <v>14</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K758" s="0" t="n">
         <v>3</v>
@@ -46980,10 +46977,10 @@
         <v>0.03</v>
       </c>
       <c r="P758" s="0" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q758" s="0" t="s">
         <v>518</v>
-      </c>
-      <c r="Q758" s="0" t="s">
-        <v>519</v>
       </c>
       <c r="T758" s="0" t="s">
         <v>70</v>
@@ -46998,10 +46995,10 @@
         <v>72</v>
       </c>
       <c r="AD758" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AE758" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AQ758" s="0" t="s">
         <v>74</v>
@@ -47010,7 +47007,7 @@
         <v>400</v>
       </c>
       <c r="AW758" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX758" s="0" t="s">
         <v>481</v>
@@ -47027,7 +47024,7 @@
         <v>15</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C759" s="0" t="s">
         <v>135</v>
@@ -47063,7 +47060,7 @@
         <v>300</v>
       </c>
       <c r="N759" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="P759" s="0" t="s">
         <v>187</v>
@@ -47081,7 +47078,7 @@
         <v>66</v>
       </c>
       <c r="AW759" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX759" s="0" t="s">
         <v>481</v>
@@ -47098,7 +47095,7 @@
         <v>16</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K760" s="0" t="n">
         <v>3</v>
@@ -47113,10 +47110,10 @@
         <v>0.03</v>
       </c>
       <c r="P760" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q760" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="Q760" s="0" t="s">
-        <v>572</v>
       </c>
       <c r="T760" s="0" t="s">
         <v>70</v>
@@ -47131,10 +47128,10 @@
         <v>72</v>
       </c>
       <c r="AD760" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AE760" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AQ760" s="0" t="s">
         <v>74</v>
@@ -47143,7 +47140,7 @@
         <v>400</v>
       </c>
       <c r="AW760" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX760" s="0" t="s">
         <v>481</v>
@@ -47160,7 +47157,7 @@
         <v>17</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K761" s="0" t="n">
         <v>3</v>
@@ -47175,10 +47172,10 @@
         <v>0.03</v>
       </c>
       <c r="P761" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q761" s="0" t="s">
         <v>574</v>
-      </c>
-      <c r="Q761" s="0" t="s">
-        <v>575</v>
       </c>
       <c r="T761" s="0" t="s">
         <v>70</v>
@@ -47193,10 +47190,10 @@
         <v>72</v>
       </c>
       <c r="AD761" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AE761" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AQ761" s="0" t="s">
         <v>74</v>
@@ -47205,7 +47202,7 @@
         <v>400</v>
       </c>
       <c r="AW761" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX761" s="0" t="s">
         <v>481</v>
@@ -47222,7 +47219,7 @@
         <v>18</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C762" s="0" t="s">
         <v>201</v>
@@ -47258,7 +47255,7 @@
         <v>300</v>
       </c>
       <c r="N762" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P762" s="0" t="s">
         <v>206</v>
@@ -47276,7 +47273,7 @@
         <v>66</v>
       </c>
       <c r="AW762" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX762" s="0" t="s">
         <v>481</v>
@@ -47293,7 +47290,7 @@
         <v>19</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K763" s="0" t="n">
         <v>3</v>
@@ -47338,7 +47335,7 @@
         <v>400</v>
       </c>
       <c r="AW763" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX763" s="0" t="s">
         <v>481</v>
@@ -47355,7 +47352,7 @@
         <v>20</v>
       </c>
       <c r="B764" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K764" s="0" t="n">
         <v>3</v>
@@ -47400,7 +47397,7 @@
         <v>400</v>
       </c>
       <c r="AW764" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX764" s="0" t="s">
         <v>481</v>
@@ -47417,7 +47414,7 @@
         <v>21</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K765" s="0" t="n">
         <v>3</v>
@@ -47462,7 +47459,7 @@
         <v>400</v>
       </c>
       <c r="AW765" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX765" s="0" t="s">
         <v>481</v>
@@ -47479,7 +47476,7 @@
         <v>22</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K766" s="0" t="n">
         <v>3</v>
@@ -47524,7 +47521,7 @@
         <v>400</v>
       </c>
       <c r="AW766" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX766" s="0" t="s">
         <v>481</v>
@@ -47541,7 +47538,7 @@
         <v>23</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K767" s="0" t="n">
         <v>1</v>
@@ -47550,19 +47547,19 @@
         <v>400</v>
       </c>
       <c r="N767" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P767" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q767" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="Q767" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="T767" s="0" t="s">
         <v>56</v>
       </c>
       <c r="AW767" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX767" s="0" t="s">
         <v>481</v>
@@ -47576,7 +47573,7 @@
         <v>24</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C768" s="0" t="s">
         <v>59</v>
@@ -47585,22 +47582,22 @@
         <v>60</v>
       </c>
       <c r="E768" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F768" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="F768" s="0" t="s">
+      <c r="G768" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="G768" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="H768" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="I768" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="I768" s="0" t="s">
+      <c r="J768" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="J768" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="K768" s="0" t="n">
         <v>2</v>
@@ -47612,16 +47609,16 @@
         <v>400</v>
       </c>
       <c r="N768" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O768" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="P768" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q768" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="Q768" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="T768" s="0" t="s">
         <v>287</v>
@@ -47633,10 +47630,10 @@
         <v>71</v>
       </c>
       <c r="AU768" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW768" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX768" s="0" t="s">
         <v>481</v>
@@ -47653,7 +47650,7 @@
         <v>25</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K769" s="0" t="n">
         <v>3</v>
@@ -47665,10 +47662,10 @@
         <v>23</v>
       </c>
       <c r="P769" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q769" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="Q769" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="T769" s="0" t="s">
         <v>70</v>
@@ -47686,10 +47683,10 @@
         <v>65</v>
       </c>
       <c r="AU769" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW769" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX769" s="0" t="s">
         <v>481</v>
@@ -47706,7 +47703,7 @@
         <v>26</v>
       </c>
       <c r="B770" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C770" s="0" t="s">
         <v>201</v>
@@ -47715,22 +47712,22 @@
         <v>202</v>
       </c>
       <c r="E770" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F770" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="F770" s="0" t="s">
-        <v>535</v>
-      </c>
       <c r="G770" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H770" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I770" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="J770" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="J770" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="K770" s="0" t="n">
         <v>2</v>
@@ -47742,16 +47739,16 @@
         <v>400</v>
       </c>
       <c r="N770" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O770" s="0" t="n">
         <v>0.09</v>
       </c>
       <c r="P770" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q770" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="Q770" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="T770" s="0" t="s">
         <v>287</v>
@@ -47763,10 +47760,10 @@
         <v>71</v>
       </c>
       <c r="AU770" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW770" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX770" s="0" t="s">
         <v>481</v>
@@ -47783,7 +47780,7 @@
         <v>27</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K771" s="0" t="n">
         <v>3</v>
@@ -47795,10 +47792,10 @@
         <v>26</v>
       </c>
       <c r="P771" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q771" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="Q771" s="0" t="s">
-        <v>538</v>
       </c>
       <c r="T771" s="0" t="s">
         <v>70</v>
@@ -47816,10 +47813,10 @@
         <v>208</v>
       </c>
       <c r="AU771" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW771" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX771" s="0" t="s">
         <v>481</v>
@@ -47836,7 +47833,7 @@
         <v>28</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K772" s="0" t="n">
         <v>1</v>
@@ -47845,7 +47842,7 @@
         <v>500</v>
       </c>
       <c r="N772" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P772" s="0" t="s">
         <v>342</v>
@@ -47857,7 +47854,7 @@
         <v>56</v>
       </c>
       <c r="AW772" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX772" s="0" t="s">
         <v>481</v>
@@ -47871,7 +47868,7 @@
         <v>29</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K773" s="0" t="n">
         <v>1</v>
@@ -47883,7 +47880,7 @@
         <v>500</v>
       </c>
       <c r="N773" s="0" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P773" s="0" t="s">
         <v>345</v>
@@ -47895,7 +47892,7 @@
         <v>56</v>
       </c>
       <c r="AW773" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX773" s="0" t="s">
         <v>481</v>
@@ -47909,7 +47906,7 @@
         <v>30</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C774" s="0" t="s">
         <v>342</v>
@@ -47963,7 +47960,7 @@
         <v>351</v>
       </c>
       <c r="AW774" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX774" s="0" t="s">
         <v>481</v>
@@ -47980,7 +47977,7 @@
         <v>31</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K775" s="0" t="n">
         <v>3</v>
@@ -48022,7 +48019,7 @@
         <v>359</v>
       </c>
       <c r="AW775" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX775" s="0" t="s">
         <v>481</v>
@@ -48039,7 +48036,7 @@
         <v>32</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K776" s="0" t="n">
         <v>3</v>
@@ -48075,7 +48072,7 @@
         <v>363</v>
       </c>
       <c r="AW776" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX776" s="0" t="s">
         <v>481</v>
@@ -48092,7 +48089,7 @@
         <v>33</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K777" s="0" t="n">
         <v>1</v>
@@ -48104,7 +48101,7 @@
         <v>500</v>
       </c>
       <c r="N777" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P777" s="0" t="s">
         <v>365</v>
@@ -48116,7 +48113,7 @@
         <v>56</v>
       </c>
       <c r="AW777" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX777" s="0" t="s">
         <v>481</v>
@@ -48130,7 +48127,7 @@
         <v>34</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C778" s="0" t="s">
         <v>342</v>
@@ -48184,7 +48181,7 @@
         <v>372</v>
       </c>
       <c r="AW778" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX778" s="0" t="s">
         <v>481</v>
@@ -48201,7 +48198,7 @@
         <v>35</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K779" s="0" t="n">
         <v>3</v>
@@ -48240,7 +48237,7 @@
         <v>372</v>
       </c>
       <c r="AW779" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX779" s="0" t="s">
         <v>481</v>
@@ -48257,7 +48254,7 @@
         <v>36</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K780" s="0" t="n">
         <v>3</v>
@@ -48272,10 +48269,10 @@
         <v>0.05</v>
       </c>
       <c r="P780" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q780" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="Q780" s="0" t="s">
-        <v>507</v>
       </c>
       <c r="T780" s="0" t="s">
         <v>375</v>
@@ -48293,7 +48290,7 @@
         <v>372</v>
       </c>
       <c r="AW780" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX780" s="0" t="s">
         <v>481</v>
@@ -48310,7 +48307,7 @@
         <v>37</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K781" s="0" t="n">
         <v>3</v>
@@ -48325,13 +48322,13 @@
         <v>0.05</v>
       </c>
       <c r="P781" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q781" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="Q781" s="0" t="s">
+      <c r="T781" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="T781" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="AB781" s="0" t="s">
         <v>353</v>
@@ -48349,7 +48346,7 @@
         <v>372</v>
       </c>
       <c r="AW781" s="0" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AX781" s="0" t="s">
         <v>481</v>
@@ -48363,7 +48360,7 @@
         <v>1</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K782" s="0" t="n">
         <v>1</v>
@@ -48372,7 +48369,7 @@
         <v>500</v>
       </c>
       <c r="N782" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P782" s="0" t="s">
         <v>54</v>
@@ -48384,10 +48381,10 @@
         <v>56</v>
       </c>
       <c r="AW782" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX782" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX782" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY782" s="0" t="s">
         <v>56</v>
@@ -48398,7 +48395,7 @@
         <v>2</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C783" s="0" t="s">
         <v>59</v>
@@ -48434,7 +48431,7 @@
         <v>500</v>
       </c>
       <c r="N783" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="P783" s="0" t="s">
         <v>61</v>
@@ -48452,10 +48449,10 @@
         <v>66</v>
       </c>
       <c r="AW783" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX783" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX783" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY783" s="0" t="s">
         <v>56</v>
@@ -48469,7 +48466,7 @@
         <v>3</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K784" s="0" t="n">
         <v>3</v>
@@ -48514,10 +48511,10 @@
         <v>75</v>
       </c>
       <c r="AW784" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX784" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX784" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY784" s="0" t="s">
         <v>56</v>
@@ -48531,7 +48528,7 @@
         <v>4</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K785" s="0" t="n">
         <v>3</v>
@@ -48549,7 +48546,7 @@
         <v>105</v>
       </c>
       <c r="Q785" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="T785" s="0" t="s">
         <v>70</v>
@@ -48576,10 +48573,10 @@
         <v>75</v>
       </c>
       <c r="AW785" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX785" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX785" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY785" s="0" t="s">
         <v>56</v>
@@ -48593,7 +48590,7 @@
         <v>5</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C786" s="0" t="s">
         <v>135</v>
@@ -48629,7 +48626,7 @@
         <v>500</v>
       </c>
       <c r="N786" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P786" s="0" t="s">
         <v>137</v>
@@ -48647,10 +48644,10 @@
         <v>66</v>
       </c>
       <c r="AW786" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX786" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX786" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY786" s="0" t="s">
         <v>56</v>
@@ -48664,7 +48661,7 @@
         <v>6</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K787" s="0" t="n">
         <v>3</v>
@@ -48709,10 +48706,10 @@
         <v>75</v>
       </c>
       <c r="AW787" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX787" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX787" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY787" s="0" t="s">
         <v>56</v>
@@ -48726,7 +48723,7 @@
         <v>7</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K788" s="0" t="n">
         <v>3</v>
@@ -48741,10 +48738,10 @@
         <v>0.05</v>
       </c>
       <c r="P788" s="0" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q788" s="0" t="s">
         <v>588</v>
-      </c>
-      <c r="Q788" s="0" t="s">
-        <v>589</v>
       </c>
       <c r="T788" s="0" t="s">
         <v>70</v>
@@ -48759,10 +48756,10 @@
         <v>72</v>
       </c>
       <c r="AD788" s="0" t="s">
+        <v>589</v>
+      </c>
+      <c r="AE788" s="0" t="s">
         <v>590</v>
-      </c>
-      <c r="AE788" s="0" t="s">
-        <v>591</v>
       </c>
       <c r="AQ788" s="0" t="s">
         <v>74</v>
@@ -48771,10 +48768,10 @@
         <v>75</v>
       </c>
       <c r="AW788" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX788" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX788" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY788" s="0" t="s">
         <v>56</v>
@@ -48788,7 +48785,7 @@
         <v>8</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C789" s="0" t="s">
         <v>135</v>
@@ -48824,7 +48821,7 @@
         <v>500</v>
       </c>
       <c r="N789" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P789" s="0" t="s">
         <v>187</v>
@@ -48842,10 +48839,10 @@
         <v>66</v>
       </c>
       <c r="AW789" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX789" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX789" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY789" s="0" t="s">
         <v>56</v>
@@ -48859,7 +48856,7 @@
         <v>9</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K790" s="0" t="n">
         <v>3</v>
@@ -48874,10 +48871,10 @@
         <v>0.05</v>
       </c>
       <c r="P790" s="0" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q790" s="0" t="s">
         <v>571</v>
-      </c>
-      <c r="Q790" s="0" t="s">
-        <v>572</v>
       </c>
       <c r="T790" s="0" t="s">
         <v>70</v>
@@ -48892,10 +48889,10 @@
         <v>72</v>
       </c>
       <c r="AD790" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AE790" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AQ790" s="0" t="s">
         <v>74</v>
@@ -48904,10 +48901,10 @@
         <v>75</v>
       </c>
       <c r="AW790" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX790" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX790" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY790" s="0" t="s">
         <v>56</v>
@@ -48921,7 +48918,7 @@
         <v>10</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K791" s="0" t="n">
         <v>3</v>
@@ -48936,10 +48933,10 @@
         <v>0.05</v>
       </c>
       <c r="P791" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q791" s="0" t="s">
         <v>574</v>
-      </c>
-      <c r="Q791" s="0" t="s">
-        <v>575</v>
       </c>
       <c r="T791" s="0" t="s">
         <v>70</v>
@@ -48954,10 +48951,10 @@
         <v>72</v>
       </c>
       <c r="AD791" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AE791" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AQ791" s="0" t="s">
         <v>74</v>
@@ -48966,10 +48963,10 @@
         <v>75</v>
       </c>
       <c r="AW791" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX791" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX791" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY791" s="0" t="s">
         <v>56</v>
@@ -48983,7 +48980,7 @@
         <v>11</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C792" s="0" t="s">
         <v>201</v>
@@ -49019,7 +49016,7 @@
         <v>500</v>
       </c>
       <c r="N792" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P792" s="0" t="s">
         <v>206</v>
@@ -49037,10 +49034,10 @@
         <v>66</v>
       </c>
       <c r="AW792" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX792" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX792" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY792" s="0" t="s">
         <v>56</v>
@@ -49054,7 +49051,7 @@
         <v>12</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K793" s="0" t="n">
         <v>3</v>
@@ -49099,10 +49096,10 @@
         <v>75</v>
       </c>
       <c r="AW793" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX793" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX793" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY793" s="0" t="s">
         <v>56</v>
@@ -49116,7 +49113,7 @@
         <v>13</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K794" s="0" t="n">
         <v>3</v>
@@ -49161,10 +49158,10 @@
         <v>75</v>
       </c>
       <c r="AW794" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX794" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX794" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY794" s="0" t="s">
         <v>56</v>
@@ -49178,7 +49175,7 @@
         <v>14</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K795" s="0" t="n">
         <v>3</v>
@@ -49223,10 +49220,10 @@
         <v>75</v>
       </c>
       <c r="AW795" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX795" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX795" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY795" s="0" t="s">
         <v>56</v>
@@ -49240,7 +49237,7 @@
         <v>15</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K796" s="0" t="n">
         <v>3</v>
@@ -49285,10 +49282,10 @@
         <v>75</v>
       </c>
       <c r="AW796" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX796" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX796" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY796" s="0" t="s">
         <v>56</v>
@@ -49302,7 +49299,7 @@
         <v>16</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K797" s="0" t="n">
         <v>3</v>
@@ -49347,10 +49344,10 @@
         <v>75</v>
       </c>
       <c r="AW797" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX797" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX797" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY797" s="0" t="s">
         <v>56</v>
@@ -49364,7 +49361,7 @@
         <v>17</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K798" s="0" t="n">
         <v>3</v>
@@ -49409,10 +49406,10 @@
         <v>75</v>
       </c>
       <c r="AW798" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX798" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX798" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY798" s="0" t="s">
         <v>56</v>
@@ -49426,7 +49423,7 @@
         <v>18</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K799" s="0" t="n">
         <v>1</v>
@@ -49435,22 +49432,22 @@
         <v>600</v>
       </c>
       <c r="N799" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P799" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q799" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="Q799" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="T799" s="0" t="s">
         <v>56</v>
       </c>
       <c r="AW799" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX799" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX799" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY799" s="0" t="s">
         <v>56</v>
@@ -49461,7 +49458,7 @@
         <v>19</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C800" s="0" t="s">
         <v>59</v>
@@ -49470,22 +49467,22 @@
         <v>60</v>
       </c>
       <c r="E800" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F800" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="F800" s="0" t="s">
+      <c r="G800" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="G800" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="H800" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="I800" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="I800" s="0" t="s">
+      <c r="J800" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="J800" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="K800" s="0" t="n">
         <v>2</v>
@@ -49497,16 +49494,16 @@
         <v>600</v>
       </c>
       <c r="N800" s="0" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O800" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="P800" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q800" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="Q800" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="T800" s="0" t="s">
         <v>287</v>
@@ -49518,13 +49515,13 @@
         <v>71</v>
       </c>
       <c r="AU800" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW800" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX800" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX800" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY800" s="0" t="s">
         <v>56</v>
@@ -49538,7 +49535,7 @@
         <v>20</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K801" s="0" t="n">
         <v>3</v>
@@ -49550,10 +49547,10 @@
         <v>18</v>
       </c>
       <c r="P801" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q801" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="Q801" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="T801" s="0" t="s">
         <v>70</v>
@@ -49571,13 +49568,13 @@
         <v>65</v>
       </c>
       <c r="AU801" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW801" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX801" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX801" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY801" s="0" t="s">
         <v>56</v>
@@ -49591,7 +49588,7 @@
         <v>21</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C802" s="0" t="s">
         <v>201</v>
@@ -49600,22 +49597,22 @@
         <v>202</v>
       </c>
       <c r="E802" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F802" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="F802" s="0" t="s">
-        <v>535</v>
-      </c>
       <c r="G802" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H802" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I802" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="J802" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="J802" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="K802" s="0" t="n">
         <v>2</v>
@@ -49627,16 +49624,16 @@
         <v>600</v>
       </c>
       <c r="N802" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O802" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="P802" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q802" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="Q802" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="T802" s="0" t="s">
         <v>287</v>
@@ -49648,13 +49645,13 @@
         <v>71</v>
       </c>
       <c r="AU802" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW802" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX802" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX802" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY802" s="0" t="s">
         <v>56</v>
@@ -49668,7 +49665,7 @@
         <v>22</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K803" s="0" t="n">
         <v>3</v>
@@ -49680,10 +49677,10 @@
         <v>21</v>
       </c>
       <c r="P803" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q803" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="Q803" s="0" t="s">
-        <v>538</v>
       </c>
       <c r="T803" s="0" t="s">
         <v>70</v>
@@ -49701,13 +49698,13 @@
         <v>208</v>
       </c>
       <c r="AU803" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW803" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX803" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX803" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY803" s="0" t="s">
         <v>56</v>
@@ -49721,7 +49718,7 @@
         <v>23</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C804" s="0" t="s">
         <v>135</v>
@@ -49730,22 +49727,22 @@
         <v>136</v>
       </c>
       <c r="E804" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="F804" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="F804" s="0" t="s">
-        <v>555</v>
-      </c>
       <c r="G804" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H804" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I804" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="J804" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="J804" s="0" t="s">
-        <v>555</v>
       </c>
       <c r="K804" s="0" t="n">
         <v>2</v>
@@ -49757,16 +49754,16 @@
         <v>600</v>
       </c>
       <c r="N804" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O804" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="P804" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q804" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="Q804" s="0" t="s">
-        <v>555</v>
       </c>
       <c r="T804" s="0" t="s">
         <v>287</v>
@@ -49778,13 +49775,13 @@
         <v>71</v>
       </c>
       <c r="AU804" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AW804" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX804" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX804" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY804" s="0" t="s">
         <v>56</v>
@@ -49798,7 +49795,7 @@
         <v>24</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K805" s="0" t="n">
         <v>3</v>
@@ -49810,10 +49807,10 @@
         <v>24</v>
       </c>
       <c r="P805" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q805" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="Q805" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="T805" s="0" t="s">
         <v>70</v>
@@ -49831,13 +49828,13 @@
         <v>141</v>
       </c>
       <c r="AU805" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AW805" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX805" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX805" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY805" s="0" t="s">
         <v>56</v>
@@ -49851,7 +49848,7 @@
         <v>25</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C806" s="0" t="s">
         <v>135</v>
@@ -49860,22 +49857,22 @@
         <v>136</v>
       </c>
       <c r="E806" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="F806" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="F806" s="0" t="s">
-        <v>597</v>
-      </c>
       <c r="G806" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H806" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I806" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="J806" s="0" t="s">
         <v>596</v>
-      </c>
-      <c r="J806" s="0" t="s">
-        <v>597</v>
       </c>
       <c r="K806" s="0" t="n">
         <v>2</v>
@@ -49887,16 +49884,16 @@
         <v>600</v>
       </c>
       <c r="N806" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O806" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="P806" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q806" s="0" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T806" s="0" t="s">
         <v>287</v>
@@ -49908,13 +49905,13 @@
         <v>71</v>
       </c>
       <c r="AU806" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AW806" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX806" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX806" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY806" s="0" t="s">
         <v>56</v>
@@ -49928,7 +49925,7 @@
         <v>26</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K807" s="0" t="n">
         <v>3</v>
@@ -49940,10 +49937,10 @@
         <v>27</v>
       </c>
       <c r="P807" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q807" s="0" t="s">
         <v>600</v>
-      </c>
-      <c r="Q807" s="0" t="s">
-        <v>601</v>
       </c>
       <c r="T807" s="0" t="s">
         <v>70</v>
@@ -49961,13 +49958,13 @@
         <v>189</v>
       </c>
       <c r="AU807" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AW807" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="AX807" s="0" t="s">
         <v>585</v>
-      </c>
-      <c r="AX807" s="0" t="s">
-        <v>586</v>
       </c>
       <c r="AY807" s="0" t="s">
         <v>56</v>
@@ -49981,7 +49978,7 @@
         <v>1</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K808" s="0" t="n">
         <v>1</v>
@@ -49990,7 +49987,7 @@
         <v>500</v>
       </c>
       <c r="N808" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P808" s="0" t="s">
         <v>54</v>
@@ -50002,10 +49999,10 @@
         <v>56</v>
       </c>
       <c r="AW808" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX808" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX808" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY808" s="0" t="s">
         <v>56</v>
@@ -50016,7 +50013,7 @@
         <v>2</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C809" s="0" t="s">
         <v>59</v>
@@ -50052,7 +50049,7 @@
         <v>500</v>
       </c>
       <c r="N809" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="P809" s="0" t="s">
         <v>61</v>
@@ -50070,10 +50067,10 @@
         <v>66</v>
       </c>
       <c r="AW809" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX809" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX809" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY809" s="0" t="s">
         <v>56</v>
@@ -50087,7 +50084,7 @@
         <v>3</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K810" s="0" t="n">
         <v>3</v>
@@ -50132,10 +50129,10 @@
         <v>75</v>
       </c>
       <c r="AW810" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX810" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX810" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY810" s="0" t="s">
         <v>56</v>
@@ -50149,7 +50146,7 @@
         <v>4</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K811" s="0" t="n">
         <v>3</v>
@@ -50194,10 +50191,10 @@
         <v>75</v>
       </c>
       <c r="AW811" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX811" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX811" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY811" s="0" t="s">
         <v>56</v>
@@ -50211,7 +50208,7 @@
         <v>5</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K812" s="0" t="n">
         <v>3</v>
@@ -50256,10 +50253,10 @@
         <v>75</v>
       </c>
       <c r="AW812" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX812" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX812" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY812" s="0" t="s">
         <v>56</v>
@@ -50273,7 +50270,7 @@
         <v>6</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K813" s="0" t="n">
         <v>3</v>
@@ -50318,10 +50315,10 @@
         <v>75</v>
       </c>
       <c r="AW813" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX813" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX813" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY813" s="0" t="s">
         <v>56</v>
@@ -50335,7 +50332,7 @@
         <v>7</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K814" s="0" t="n">
         <v>3</v>
@@ -50380,10 +50377,10 @@
         <v>75</v>
       </c>
       <c r="AW814" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX814" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX814" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY814" s="0" t="s">
         <v>56</v>
@@ -50397,7 +50394,7 @@
         <v>8</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K815" s="0" t="n">
         <v>3</v>
@@ -50415,7 +50412,7 @@
         <v>402</v>
       </c>
       <c r="Q815" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="T815" s="0" t="s">
         <v>70</v>
@@ -50430,10 +50427,10 @@
         <v>72</v>
       </c>
       <c r="AD815" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE815" s="0" t="s">
         <v>608</v>
-      </c>
-      <c r="AE815" s="0" t="s">
-        <v>609</v>
       </c>
       <c r="AQ815" s="0" t="s">
         <v>74</v>
@@ -50442,10 +50439,10 @@
         <v>75</v>
       </c>
       <c r="AW815" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX815" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX815" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY815" s="0" t="s">
         <v>56</v>
@@ -50459,7 +50456,7 @@
         <v>9</v>
       </c>
       <c r="B816" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C816" s="0" t="s">
         <v>135</v>
@@ -50495,7 +50492,7 @@
         <v>500</v>
       </c>
       <c r="N816" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P816" s="0" t="s">
         <v>137</v>
@@ -50513,10 +50510,10 @@
         <v>66</v>
       </c>
       <c r="AW816" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX816" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX816" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY816" s="0" t="s">
         <v>56</v>
@@ -50530,7 +50527,7 @@
         <v>10</v>
       </c>
       <c r="B817" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K817" s="0" t="n">
         <v>3</v>
@@ -50575,10 +50572,10 @@
         <v>75</v>
       </c>
       <c r="AW817" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX817" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX817" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY817" s="0" t="s">
         <v>56</v>
@@ -50592,7 +50589,7 @@
         <v>11</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C818" s="0" t="s">
         <v>159</v>
@@ -50628,7 +50625,7 @@
         <v>500</v>
       </c>
       <c r="N818" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P818" s="0" t="s">
         <v>161</v>
@@ -50646,10 +50643,10 @@
         <v>66</v>
       </c>
       <c r="AW818" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX818" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX818" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY818" s="0" t="s">
         <v>56</v>
@@ -50663,7 +50660,7 @@
         <v>12</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K819" s="0" t="n">
         <v>3</v>
@@ -50708,10 +50705,10 @@
         <v>75</v>
       </c>
       <c r="AW819" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX819" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX819" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY819" s="0" t="s">
         <v>56</v>
@@ -50725,7 +50722,7 @@
         <v>13</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K820" s="0" t="n">
         <v>3</v>
@@ -50770,10 +50767,10 @@
         <v>75</v>
       </c>
       <c r="AW820" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX820" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX820" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY820" s="0" t="s">
         <v>56</v>
@@ -50787,7 +50784,7 @@
         <v>14</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K821" s="0" t="n">
         <v>3</v>
@@ -50832,10 +50829,10 @@
         <v>75</v>
       </c>
       <c r="AW821" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX821" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX821" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY821" s="0" t="s">
         <v>56</v>
@@ -50849,7 +50846,7 @@
         <v>15</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K822" s="0" t="n">
         <v>3</v>
@@ -50864,10 +50861,10 @@
         <v>0.05</v>
       </c>
       <c r="P822" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q822" s="0" t="s">
         <v>612</v>
-      </c>
-      <c r="Q822" s="0" t="s">
-        <v>613</v>
       </c>
       <c r="T822" s="0" t="s">
         <v>70</v>
@@ -50882,10 +50879,10 @@
         <v>72</v>
       </c>
       <c r="AD822" s="0" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AE822" s="0" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AQ822" s="0" t="s">
         <v>74</v>
@@ -50894,10 +50891,10 @@
         <v>75</v>
       </c>
       <c r="AW822" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX822" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX822" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY822" s="0" t="s">
         <v>56</v>
@@ -50911,7 +50908,7 @@
         <v>16</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K823" s="0" t="n">
         <v>3</v>
@@ -50947,7 +50944,7 @@
         <v>498</v>
       </c>
       <c r="AE823" s="0" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AQ823" s="0" t="s">
         <v>74</v>
@@ -50956,10 +50953,10 @@
         <v>75</v>
       </c>
       <c r="AW823" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX823" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX823" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY823" s="0" t="s">
         <v>56</v>
@@ -50973,7 +50970,7 @@
         <v>17</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K824" s="0" t="n">
         <v>1</v>
@@ -50982,22 +50979,22 @@
         <v>501</v>
       </c>
       <c r="N824" s="0" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P824" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q824" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="Q824" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="T824" s="0" t="s">
         <v>56</v>
       </c>
       <c r="AW824" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX824" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX824" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY824" s="0" t="s">
         <v>56</v>
@@ -51008,7 +51005,7 @@
         <v>18</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K825" s="0" t="n">
         <v>1</v>
@@ -51020,7 +51017,7 @@
         <v>501</v>
       </c>
       <c r="N825" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P825" s="0" t="s">
         <v>324</v>
@@ -51032,10 +51029,10 @@
         <v>56</v>
       </c>
       <c r="AW825" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX825" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX825" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY825" s="0" t="s">
         <v>56</v>
@@ -51046,7 +51043,7 @@
         <v>19</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C826" s="0" t="s">
         <v>159</v>
@@ -51055,10 +51052,10 @@
         <v>160</v>
       </c>
       <c r="E826" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="F826" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="F826" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="G826" s="0" t="s">
         <v>279</v>
@@ -51067,10 +51064,10 @@
         <v>283</v>
       </c>
       <c r="I826" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="J826" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="J826" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="K826" s="0" t="n">
         <v>2</v>
@@ -51082,16 +51079,16 @@
         <v>16</v>
       </c>
       <c r="N826" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O826" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="P826" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q826" s="0" t="s">
         <v>619</v>
-      </c>
-      <c r="Q826" s="0" t="s">
-        <v>620</v>
       </c>
       <c r="T826" s="0" t="s">
         <v>287</v>
@@ -51106,13 +51103,13 @@
         <v>74</v>
       </c>
       <c r="AU826" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW826" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX826" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX826" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY826" s="0" t="s">
         <v>56</v>
@@ -51126,7 +51123,7 @@
         <v>20</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K827" s="0" t="n">
         <v>3</v>
@@ -51138,10 +51135,10 @@
         <v>17</v>
       </c>
       <c r="P827" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="Q827" s="0" t="s">
         <v>621</v>
-      </c>
-      <c r="Q827" s="0" t="s">
-        <v>622</v>
       </c>
       <c r="T827" s="0" t="s">
         <v>70</v>
@@ -51156,19 +51153,19 @@
         <v>333</v>
       </c>
       <c r="AD827" s="0" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AQ827" s="0" t="s">
         <v>74</v>
       </c>
       <c r="AU827" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW827" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX827" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX827" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY827" s="0" t="s">
         <v>56</v>
@@ -51182,7 +51179,7 @@
         <v>21</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C828" s="0" t="s">
         <v>159</v>
@@ -51191,10 +51188,10 @@
         <v>160</v>
       </c>
       <c r="E828" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="F828" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="F828" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="G828" s="0" t="s">
         <v>279</v>
@@ -51203,10 +51200,10 @@
         <v>283</v>
       </c>
       <c r="I828" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="J828" s="0" t="s">
         <v>617</v>
-      </c>
-      <c r="J828" s="0" t="s">
-        <v>618</v>
       </c>
       <c r="K828" s="0" t="n">
         <v>2</v>
@@ -51218,16 +51215,16 @@
         <v>16</v>
       </c>
       <c r="N828" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="O828" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="P828" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q828" s="0" t="s">
         <v>624</v>
-      </c>
-      <c r="Q828" s="0" t="s">
-        <v>625</v>
       </c>
       <c r="T828" s="0" t="s">
         <v>287</v>
@@ -51242,13 +51239,13 @@
         <v>74</v>
       </c>
       <c r="AU828" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW828" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX828" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX828" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY828" s="0" t="s">
         <v>56</v>
@@ -51262,7 +51259,7 @@
         <v>22</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K829" s="0" t="n">
         <v>3</v>
@@ -51274,10 +51271,10 @@
         <v>19</v>
       </c>
       <c r="P829" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q829" s="0" t="s">
         <v>626</v>
-      </c>
-      <c r="Q829" s="0" t="s">
-        <v>627</v>
       </c>
       <c r="T829" s="0" t="s">
         <v>70</v>
@@ -51292,19 +51289,19 @@
         <v>333</v>
       </c>
       <c r="AD829" s="0" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AQ829" s="0" t="s">
         <v>74</v>
       </c>
       <c r="AU829" s="0" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AW829" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX829" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX829" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY829" s="0" t="s">
         <v>56</v>
@@ -51318,7 +51315,7 @@
         <v>23</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K830" s="0" t="n">
         <v>1</v>
@@ -51327,7 +51324,7 @@
         <v>502</v>
       </c>
       <c r="N830" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="P830" s="0" t="s">
         <v>342</v>
@@ -51339,10 +51336,10 @@
         <v>56</v>
       </c>
       <c r="AW830" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX830" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX830" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY830" s="0" t="s">
         <v>56</v>
@@ -51353,7 +51350,7 @@
         <v>24</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K831" s="0" t="n">
         <v>1</v>
@@ -51365,7 +51362,7 @@
         <v>502</v>
       </c>
       <c r="N831" s="0" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="P831" s="0" t="s">
         <v>345</v>
@@ -51377,10 +51374,10 @@
         <v>56</v>
       </c>
       <c r="AW831" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX831" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX831" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY831" s="0" t="s">
         <v>56</v>
@@ -51391,7 +51388,7 @@
         <v>25</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C832" s="0" t="s">
         <v>342</v>
@@ -51427,7 +51424,7 @@
         <v>21</v>
       </c>
       <c r="N832" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O832" s="0" t="n">
         <v>0.15</v>
@@ -51445,10 +51442,10 @@
         <v>351</v>
       </c>
       <c r="AW832" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX832" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX832" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY832" s="0" t="s">
         <v>56</v>
@@ -51462,7 +51459,7 @@
         <v>26</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K833" s="0" t="n">
         <v>3</v>
@@ -51504,10 +51501,10 @@
         <v>359</v>
       </c>
       <c r="AW833" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX833" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX833" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY833" s="0" t="s">
         <v>56</v>
@@ -51521,7 +51518,7 @@
         <v>27</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K834" s="0" t="n">
         <v>3</v>
@@ -51557,10 +51554,10 @@
         <v>363</v>
       </c>
       <c r="AW834" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX834" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX834" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY834" s="0" t="s">
         <v>56</v>
@@ -51574,7 +51571,7 @@
         <v>28</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K835" s="0" t="n">
         <v>1</v>
@@ -51586,7 +51583,7 @@
         <v>502</v>
       </c>
       <c r="N835" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P835" s="0" t="s">
         <v>365</v>
@@ -51598,10 +51595,10 @@
         <v>56</v>
       </c>
       <c r="AW835" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX835" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX835" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY835" s="0" t="s">
         <v>56</v>
@@ -51612,7 +51609,7 @@
         <v>29</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C836" s="0" t="s">
         <v>342</v>
@@ -51648,7 +51645,7 @@
         <v>25</v>
       </c>
       <c r="N836" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="P836" s="0" t="s">
         <v>380</v>
@@ -51666,10 +51663,10 @@
         <v>372</v>
       </c>
       <c r="AW836" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX836" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX836" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY836" s="0" t="s">
         <v>56</v>
@@ -51683,7 +51680,7 @@
         <v>30</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K837" s="0" t="n">
         <v>3</v>
@@ -51722,10 +51719,10 @@
         <v>372</v>
       </c>
       <c r="AW837" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX837" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX837" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY837" s="0" t="s">
         <v>56</v>
@@ -51739,7 +51736,7 @@
         <v>31</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K838" s="0" t="n">
         <v>3</v>
@@ -51754,10 +51751,10 @@
         <v>0.05</v>
       </c>
       <c r="P838" s="0" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q838" s="0" t="s">
         <v>506</v>
-      </c>
-      <c r="Q838" s="0" t="s">
-        <v>507</v>
       </c>
       <c r="T838" s="0" t="s">
         <v>375</v>
@@ -51775,10 +51772,10 @@
         <v>372</v>
       </c>
       <c r="AW838" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX838" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX838" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY838" s="0" t="s">
         <v>56</v>
@@ -51792,7 +51789,7 @@
         <v>32</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K839" s="0" t="n">
         <v>3</v>
@@ -51807,13 +51804,13 @@
         <v>0.05</v>
       </c>
       <c r="P839" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="Q839" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="Q839" s="0" t="s">
+      <c r="T839" s="0" t="s">
         <v>509</v>
-      </c>
-      <c r="T839" s="0" t="s">
-        <v>510</v>
       </c>
       <c r="AB839" s="0" t="s">
         <v>353</v>
@@ -51831,10 +51828,10 @@
         <v>372</v>
       </c>
       <c r="AW839" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="AX839" s="0" t="s">
         <v>604</v>
-      </c>
-      <c r="AX839" s="0" t="s">
-        <v>605</v>
       </c>
       <c r="AY839" s="0" t="s">
         <v>56</v>
@@ -51845,7 +51842,7 @@
         <v>1</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K840" s="0" t="n">
         <v>1</v>
@@ -51854,7 +51851,7 @@
         <v>500</v>
       </c>
       <c r="N840" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P840" s="0" t="s">
         <v>54</v>
@@ -51866,10 +51863,10 @@
         <v>56</v>
       </c>
       <c r="AW840" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX840" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX840" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY840" s="0" t="s">
         <v>56</v>
@@ -51880,7 +51877,7 @@
         <v>2</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C841" s="0" t="s">
         <v>59</v>
@@ -51916,7 +51913,7 @@
         <v>500</v>
       </c>
       <c r="N841" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P841" s="0" t="s">
         <v>61</v>
@@ -51934,10 +51931,10 @@
         <v>66</v>
       </c>
       <c r="AW841" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX841" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX841" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY841" s="0" t="s">
         <v>56</v>
@@ -51951,7 +51948,7 @@
         <v>3</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K842" s="0" t="n">
         <v>3</v>
@@ -51996,10 +51993,10 @@
         <v>75</v>
       </c>
       <c r="AW842" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX842" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX842" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY842" s="0" t="s">
         <v>56</v>
@@ -52013,7 +52010,7 @@
         <v>4</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K843" s="0" t="n">
         <v>3</v>
@@ -52058,10 +52055,10 @@
         <v>75</v>
       </c>
       <c r="AW843" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX843" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX843" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY843" s="0" t="s">
         <v>56</v>
@@ -52075,7 +52072,7 @@
         <v>5</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K844" s="0" t="n">
         <v>3</v>
@@ -52120,10 +52117,10 @@
         <v>75</v>
       </c>
       <c r="AW844" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX844" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX844" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY844" s="0" t="s">
         <v>56</v>
@@ -52137,7 +52134,7 @@
         <v>6</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C845" s="0" t="s">
         <v>135</v>
@@ -52173,7 +52170,7 @@
         <v>500</v>
       </c>
       <c r="N845" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P845" s="0" t="s">
         <v>137</v>
@@ -52191,10 +52188,10 @@
         <v>66</v>
       </c>
       <c r="AW845" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX845" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX845" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY845" s="0" t="s">
         <v>56</v>
@@ -52208,7 +52205,7 @@
         <v>7</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K846" s="0" t="n">
         <v>3</v>
@@ -52253,10 +52250,10 @@
         <v>75</v>
       </c>
       <c r="AW846" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX846" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX846" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY846" s="0" t="s">
         <v>56</v>
@@ -52270,7 +52267,7 @@
         <v>8</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C847" s="0" t="s">
         <v>135</v>
@@ -52306,7 +52303,7 @@
         <v>500</v>
       </c>
       <c r="N847" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P847" s="0" t="s">
         <v>187</v>
@@ -52324,10 +52321,10 @@
         <v>66</v>
       </c>
       <c r="AW847" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX847" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX847" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY847" s="0" t="s">
         <v>56</v>
@@ -52341,7 +52338,7 @@
         <v>9</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K848" s="0" t="n">
         <v>3</v>
@@ -52356,10 +52353,10 @@
         <v>0.05</v>
       </c>
       <c r="P848" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q848" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="T848" s="0" t="s">
         <v>70</v>
@@ -52374,10 +52371,10 @@
         <v>72</v>
       </c>
       <c r="AD848" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AE848" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AQ848" s="0" t="s">
         <v>74</v>
@@ -52386,10 +52383,10 @@
         <v>75</v>
       </c>
       <c r="AW848" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX848" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX848" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY848" s="0" t="s">
         <v>56</v>
@@ -52403,7 +52400,7 @@
         <v>10</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K849" s="0" t="n">
         <v>3</v>
@@ -52418,10 +52415,10 @@
         <v>0.05</v>
       </c>
       <c r="P849" s="0" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q849" s="0" t="s">
         <v>574</v>
-      </c>
-      <c r="Q849" s="0" t="s">
-        <v>575</v>
       </c>
       <c r="T849" s="0" t="s">
         <v>70</v>
@@ -52436,10 +52433,10 @@
         <v>72</v>
       </c>
       <c r="AD849" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AE849" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AQ849" s="0" t="s">
         <v>74</v>
@@ -52448,10 +52445,10 @@
         <v>75</v>
       </c>
       <c r="AW849" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX849" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX849" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY849" s="0" t="s">
         <v>56</v>
@@ -52465,7 +52462,7 @@
         <v>11</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C850" s="0" t="s">
         <v>201</v>
@@ -52501,7 +52498,7 @@
         <v>500</v>
       </c>
       <c r="N850" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P850" s="0" t="s">
         <v>206</v>
@@ -52519,10 +52516,10 @@
         <v>66</v>
       </c>
       <c r="AW850" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX850" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX850" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY850" s="0" t="s">
         <v>56</v>
@@ -52536,7 +52533,7 @@
         <v>12</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K851" s="0" t="n">
         <v>3</v>
@@ -52581,10 +52578,10 @@
         <v>75</v>
       </c>
       <c r="AW851" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX851" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX851" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY851" s="0" t="s">
         <v>56</v>
@@ -52598,7 +52595,7 @@
         <v>13</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K852" s="0" t="n">
         <v>3</v>
@@ -52643,10 +52640,10 @@
         <v>75</v>
       </c>
       <c r="AW852" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX852" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX852" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY852" s="0" t="s">
         <v>56</v>
@@ -52660,7 +52657,7 @@
         <v>14</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K853" s="0" t="n">
         <v>3</v>
@@ -52705,10 +52702,10 @@
         <v>75</v>
       </c>
       <c r="AW853" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX853" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX853" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY853" s="0" t="s">
         <v>56</v>
@@ -52722,7 +52719,7 @@
         <v>15</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K854" s="0" t="n">
         <v>3</v>
@@ -52767,10 +52764,10 @@
         <v>75</v>
       </c>
       <c r="AW854" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX854" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX854" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY854" s="0" t="s">
         <v>56</v>
@@ -52784,7 +52781,7 @@
         <v>16</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K855" s="0" t="n">
         <v>3</v>
@@ -52829,10 +52826,10 @@
         <v>75</v>
       </c>
       <c r="AW855" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX855" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX855" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY855" s="0" t="s">
         <v>56</v>
@@ -52846,7 +52843,7 @@
         <v>17</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K856" s="0" t="n">
         <v>1</v>
@@ -52855,22 +52852,22 @@
         <v>501</v>
       </c>
       <c r="N856" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P856" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q856" s="0" t="s">
         <v>525</v>
       </c>
-      <c r="Q856" s="0" t="s">
-        <v>526</v>
-      </c>
       <c r="T856" s="0" t="s">
         <v>56</v>
       </c>
       <c r="AW856" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX856" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX856" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY856" s="0" t="s">
         <v>56</v>
@@ -52881,7 +52878,7 @@
         <v>18</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C857" s="0" t="s">
         <v>59</v>
@@ -52890,22 +52887,22 @@
         <v>60</v>
       </c>
       <c r="E857" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="F857" s="0" t="s">
         <v>527</v>
       </c>
-      <c r="F857" s="0" t="s">
+      <c r="G857" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="G857" s="0" t="s">
-        <v>529</v>
-      </c>
       <c r="H857" s="0" t="s">
+        <v>525</v>
+      </c>
+      <c r="I857" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="I857" s="0" t="s">
+      <c r="J857" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="J857" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="K857" s="0" t="n">
         <v>2</v>
@@ -52917,16 +52914,16 @@
         <v>501</v>
       </c>
       <c r="N857" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O857" s="0" t="n">
         <v>0.15</v>
       </c>
       <c r="P857" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q857" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="Q857" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="T857" s="0" t="s">
         <v>287</v>
@@ -52938,13 +52935,13 @@
         <v>71</v>
       </c>
       <c r="AU857" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW857" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX857" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX857" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY857" s="0" t="s">
         <v>56</v>
@@ -52958,7 +52955,7 @@
         <v>19</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K858" s="0" t="n">
         <v>3</v>
@@ -52970,10 +52967,10 @@
         <v>17</v>
       </c>
       <c r="P858" s="0" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q858" s="0" t="s">
         <v>532</v>
-      </c>
-      <c r="Q858" s="0" t="s">
-        <v>533</v>
       </c>
       <c r="T858" s="0" t="s">
         <v>70</v>
@@ -52991,13 +52988,13 @@
         <v>65</v>
       </c>
       <c r="AU858" s="0" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AW858" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX858" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX858" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY858" s="0" t="s">
         <v>56</v>
@@ -53011,7 +53008,7 @@
         <v>20</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C859" s="0" t="s">
         <v>201</v>
@@ -53020,22 +53017,22 @@
         <v>202</v>
       </c>
       <c r="E859" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="F859" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="F859" s="0" t="s">
-        <v>535</v>
-      </c>
       <c r="G859" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H859" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I859" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="J859" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="J859" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="K859" s="0" t="n">
         <v>2</v>
@@ -53047,16 +53044,16 @@
         <v>501</v>
       </c>
       <c r="N859" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O859" s="0" t="n">
         <v>0.2</v>
       </c>
       <c r="P859" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q859" s="0" t="s">
         <v>534</v>
-      </c>
-      <c r="Q859" s="0" t="s">
-        <v>535</v>
       </c>
       <c r="T859" s="0" t="s">
         <v>287</v>
@@ -53068,13 +53065,13 @@
         <v>71</v>
       </c>
       <c r="AU859" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW859" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX859" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX859" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY859" s="0" t="s">
         <v>56</v>
@@ -53088,7 +53085,7 @@
         <v>21</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K860" s="0" t="n">
         <v>3</v>
@@ -53100,10 +53097,10 @@
         <v>20</v>
       </c>
       <c r="P860" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q860" s="0" t="s">
         <v>537</v>
-      </c>
-      <c r="Q860" s="0" t="s">
-        <v>538</v>
       </c>
       <c r="T860" s="0" t="s">
         <v>70</v>
@@ -53121,13 +53118,13 @@
         <v>208</v>
       </c>
       <c r="AU860" s="0" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AW860" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX860" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX860" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY860" s="0" t="s">
         <v>56</v>
@@ -53141,7 +53138,7 @@
         <v>22</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C861" s="0" t="s">
         <v>135</v>
@@ -53150,22 +53147,22 @@
         <v>136</v>
       </c>
       <c r="E861" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="F861" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="F861" s="0" t="s">
-        <v>555</v>
-      </c>
       <c r="G861" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H861" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I861" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="J861" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="J861" s="0" t="s">
-        <v>555</v>
       </c>
       <c r="K861" s="0" t="n">
         <v>2</v>
@@ -53177,16 +53174,16 @@
         <v>501</v>
       </c>
       <c r="N861" s="0" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="O861" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="P861" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q861" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="Q861" s="0" t="s">
-        <v>555</v>
       </c>
       <c r="T861" s="0" t="s">
         <v>287</v>
@@ -53198,13 +53195,13 @@
         <v>71</v>
       </c>
       <c r="AU861" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AW861" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX861" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX861" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY861" s="0" t="s">
         <v>56</v>
@@ -53218,7 +53215,7 @@
         <v>23</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K862" s="0" t="n">
         <v>3</v>
@@ -53230,10 +53227,10 @@
         <v>23</v>
       </c>
       <c r="P862" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q862" s="0" t="s">
         <v>558</v>
-      </c>
-      <c r="Q862" s="0" t="s">
-        <v>559</v>
       </c>
       <c r="T862" s="0" t="s">
         <v>70</v>
@@ -53251,13 +53248,13 @@
         <v>141</v>
       </c>
       <c r="AU862" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AW862" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX862" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX862" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY862" s="0" t="s">
         <v>56</v>
@@ -53271,7 +53268,7 @@
         <v>24</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C863" s="0" t="s">
         <v>135</v>
@@ -53280,22 +53277,22 @@
         <v>136</v>
       </c>
       <c r="E863" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="F863" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="F863" s="0" t="s">
-        <v>597</v>
-      </c>
       <c r="G863" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H863" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I863" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="J863" s="0" t="s">
         <v>596</v>
-      </c>
-      <c r="J863" s="0" t="s">
-        <v>597</v>
       </c>
       <c r="K863" s="0" t="n">
         <v>2</v>
@@ -53307,16 +53304,16 @@
         <v>501</v>
       </c>
       <c r="N863" s="0" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="O863" s="0" t="n">
         <v>0.05</v>
       </c>
       <c r="P863" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Q863" s="0" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="T863" s="0" t="s">
         <v>287</v>
@@ -53328,13 +53325,13 @@
         <v>71</v>
       </c>
       <c r="AU863" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AW863" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX863" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX863" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY863" s="0" t="s">
         <v>56</v>
@@ -53348,7 +53345,7 @@
         <v>25</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K864" s="0" t="n">
         <v>3</v>
@@ -53360,10 +53357,10 @@
         <v>26</v>
       </c>
       <c r="P864" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q864" s="0" t="s">
         <v>600</v>
-      </c>
-      <c r="Q864" s="0" t="s">
-        <v>601</v>
       </c>
       <c r="T864" s="0" t="s">
         <v>70</v>
@@ -53381,13 +53378,13 @@
         <v>189</v>
       </c>
       <c r="AU864" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AW864" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="AX864" s="0" t="s">
         <v>635</v>
-      </c>
-      <c r="AX864" s="0" t="s">
-        <v>636</v>
       </c>
       <c r="AY864" s="0" t="s">
         <v>56</v>
